--- a/Project/Phase 2/Sprint1/Sprint Backlog.xlsx
+++ b/Project/Phase 2/Sprint1/Sprint Backlog.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rui_j\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sophia\Desktop\Sophia\Faculdade\ES\ganttprojectstable\Project\Phase 2\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BA4757-C02F-460F-AEEF-F7A1C94BDB5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{420A520E-F74C-4477-A624-95B09E7A73A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
+    <workbookView xWindow="4464" yWindow="1500" windowWidth="17280" windowHeight="8964" xr2:uid="{EC316ADB-A73C-473B-B90B-E37A78668BC1}"/>
   </bookViews>
   <sheets>
     <sheet name="Backlog" sheetId="1" r:id="rId1"/>
@@ -142,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -295,11 +295,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -341,6 +378,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -445,7 +491,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -743,20 +789,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD28F5BD-44A0-4916-BB85-680B9BFFA75D}">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -764,7 +810,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="12" t="s">
         <v>1</v>
@@ -774,7 +820,7 @@
       <c r="E2" s="14"/>
       <c r="F2" s="1"/>
     </row>
-    <row r="3" spans="1:12" ht="20.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
         <v>0</v>
@@ -790,7 +836,7 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="5">
         <v>1</v>
@@ -807,7 +853,7 @@
       <c r="F4" s="1"/>
       <c r="L4" s="1"/>
     </row>
-    <row r="5" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="3">
         <v>2</v>
@@ -824,7 +870,7 @@
       <c r="F5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="3">
         <v>3</v>
@@ -841,7 +887,7 @@
       <c r="F6" s="1"/>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="3">
         <v>4</v>
@@ -858,7 +904,7 @@
       <c r="F7" s="1"/>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="3">
         <v>5</v>
@@ -874,7 +920,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="3">
         <v>6</v>
@@ -890,7 +936,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="3">
         <v>7</v>
@@ -906,7 +952,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="3">
         <v>8</v>
@@ -922,7 +968,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="3">
         <v>9</v>
@@ -938,23 +984,23 @@
       </c>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="20.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
-      <c r="B13" s="3">
+      <c r="B13" s="15">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -962,23 +1008,23 @@
       <c r="E14" s="2"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F19" s="2"/>
     </row>
   </sheetData>
@@ -1016,13 +1062,13 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B1" s="11" t="s">
         <v>16</v>
       </c>
@@ -1030,7 +1076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1084,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1046,7 +1092,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1054,7 +1100,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1062,13 +1108,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="D7" s="1"/>
     </row>
